--- a/02. Database/bki-qlts-proc.xlsx
+++ b/02. Database/bki-qlts-proc.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh Tu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\0. Working\00. BKI_QLTS\02. Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Proc Changed" sheetId="1" r:id="rId1"/>
+    <sheet name="Xoa nhom nguoi dung" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>STT</t>
   </si>
@@ -184,6 +185,24 @@
   </si>
   <si>
     <t>pr_V_GD_TANG_GIAM_TAI_SAN_OTO</t>
+  </si>
+  <si>
+    <t>Xoá các nhóm sau đây:</t>
+  </si>
+  <si>
+    <t>1. 04-Tester</t>
+  </si>
+  <si>
+    <t>3. 10-Group 10</t>
+  </si>
+  <si>
+    <t>2. 02- Cán bộ tổng cục</t>
+  </si>
+  <si>
+    <t>4. 20-Group 20</t>
+  </si>
+  <si>
+    <t>5. a</t>
   </si>
 </sst>
 </file>
@@ -281,9 +300,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -304,6 +320,9 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -318,16 +337,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H89" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H89" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:H89"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Tài sản" dataDxfId="7"/>
-    <tableColumn id="2" name="STT" dataDxfId="6"/>
-    <tableColumn id="3" name="Tên proc" dataDxfId="5"/>
-    <tableColumn id="4" name="Parameter" dataDxfId="4"/>
-    <tableColumn id="5" name="Được sử dụng ở đâu?" dataDxfId="3"/>
-    <tableColumn id="6" name="Tình trạng" dataDxfId="2"/>
-    <tableColumn id="7" name="Nội dung thay đổi" dataDxfId="1"/>
+    <tableColumn id="1" name="Tài sản" dataDxfId="6"/>
+    <tableColumn id="2" name="STT" dataDxfId="5"/>
+    <tableColumn id="3" name="Tên proc" dataDxfId="4"/>
+    <tableColumn id="4" name="Parameter" dataDxfId="3"/>
+    <tableColumn id="5" name="Được sử dụng ở đâu?" dataDxfId="2"/>
+    <tableColumn id="6" name="Tình trạng" dataDxfId="1"/>
+    <tableColumn id="7" name="Nội dung thay đổi" dataDxfId="0"/>
     <tableColumn id="8" name="alter proc"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -599,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,4 +1373,49 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>